--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -979,7 +979,7 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -994,6 +994,11 @@
       </c>
       <c r="C3" s="0" t="n">
         <v>17</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
       </c>
     </row>
     <row r="4">
